--- a/Components_list.xlsx
+++ b/Components_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>NO.</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>https://www.thegioiic.com/products/nut-nhan-12x12mm-cao-13mm-4-chan-smd</t>
+  </si>
+  <si>
+    <t>Led RED</t>
+  </si>
+  <si>
+    <t>Led BLUE</t>
+  </si>
+  <si>
+    <t>Res 330</t>
+  </si>
+  <si>
+    <t>Biến trở bánh xe 50K</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,7 +210,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -202,6 +220,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -485,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,15 +629,27 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1206</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -628,7 +663,9 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -642,7 +679,9 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -656,7 +695,9 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -670,7 +711,9 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -686,7 +729,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -702,6 +747,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
@@ -714,6 +762,55 @@
       <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -722,5 +819,6 @@
     <hyperlink ref="F15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>